--- a/data/trans_orig/IP07C12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C12-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B2CC4F0-993D-46B4-9A87-978E35ABB9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AEB7596-D388-4E49-B7D5-4F593776FB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{39FCE084-BF30-497D-B47E-173AD7B150C8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC2EAD9A-86EA-4D44-BB75-C654BF44BB56}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="453">
   <si>
     <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2007 (Tasa respuesta: 42,54%)</t>
   </si>
@@ -76,28 +76,28 @@
     <t>61,73%</t>
   </si>
   <si>
-    <t>48,82%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
   </si>
   <si>
     <t>47,08%</t>
   </si>
   <si>
-    <t>35,06%</t>
-  </si>
-  <si>
-    <t>58,73%</t>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
+    <t>45,84%</t>
+  </si>
+  <si>
+    <t>63,06%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -106,1294 +106,1297 @@
     <t>24,19%</t>
   </si>
   <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
   </si>
   <si>
     <t>39,79%</t>
   </si>
   <si>
-    <t>27,82%</t>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>20,62%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>53,67%</t>
+  </si>
+  <si>
+    <t>48,27%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
+  </si>
+  <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>57,07%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>37,71%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>29,6%</t>
+  </si>
+  <si>
+    <t>40,21%</t>
+  </si>
+  <si>
+    <t>33,58%</t>
+  </si>
+  <si>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>37,51%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
+  </si>
+  <si>
+    <t>60,99%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>45,41%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>24,63%</t>
+  </si>
+  <si>
+    <t>39,45%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>15,09%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>49,24%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>29,58%</t>
+  </si>
+  <si>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>67,72%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>44,58%</t>
+  </si>
+  <si>
+    <t>61,69%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>36,14%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>62,06%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>59,69%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>59,65%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>39,62%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>46,36%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>50,39%</t>
+  </si>
+  <si>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>21,52%</t>
+  </si>
+  <si>
+    <t>43,43%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>37,56%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>27,0%</t>
+  </si>
+  <si>
+    <t>35,44%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2016 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>61,6%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>61,05%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>31,73%</t>
   </si>
   <si>
     <t>51,95%</t>
   </si>
   <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>40,36%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>48,39%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>45,22%</t>
-  </si>
-  <si>
-    <t>57,03%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>57,01%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>29,66%</t>
-  </si>
-  <si>
-    <t>33,58%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>38,43%</t>
-  </si>
-  <si>
-    <t>60,44%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>43,25%</t>
-  </si>
-  <si>
-    <t>64,7%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>44,55%</t>
-  </si>
-  <si>
-    <t>60,64%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>23,92%</t>
-  </si>
-  <si>
-    <t>44,66%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>39,93%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>38,6%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>25,77%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>24,85%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>8,59%</t>
   </si>
   <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>58,95%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>46,16%</t>
-  </si>
-  <si>
-    <t>55,73%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>49,27%</t>
-  </si>
-  <si>
-    <t>55,91%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>29,7%</t>
-  </si>
-  <si>
-    <t>39,05%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>36,24%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>58,4%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>48,94%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>40,92%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>30,58%</t>
+  </si>
+  <si>
+    <t>40,84%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
   </si>
   <si>
     <t>0,59%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>67,6%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>49,67%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
+  </si>
+  <si>
+    <t>57,86%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>57,33%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>31,42%</t>
+  </si>
+  <si>
+    <t>39,97%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>38,09%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,29%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
   </si>
   <si>
     <t>0,89%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>37,37%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>61,87%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>22,23%</t>
-  </si>
-  <si>
-    <t>45,4%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>36,97%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>38,82%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>30,04%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>45,11%</t>
-  </si>
-  <si>
-    <t>67,14%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>70,05%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>66,37%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>41,97%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>36,87%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>17,62%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>51,22%</t>
-  </si>
-  <si>
-    <t>60,77%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>59,34%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>37,61%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>35,67%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2015 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>29,96%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>32,53%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>36,08%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>34,7%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>47,59%</t>
-  </si>
-  <si>
-    <t>58,35%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>46,66%</t>
-  </si>
-  <si>
-    <t>57,49%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>48,91%</t>
-  </si>
-  <si>
-    <t>56,39%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>30,83%</t>
-  </si>
-  <si>
-    <t>41,28%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>71,63%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>49,54%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>40,2%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>33,88%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>49,38%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>57,51%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,22%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
+    <t>0,2%</t>
   </si>
   <si>
     <t>1,79%</t>
   </si>
   <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,75%</t>
   </si>
 </sst>
 </file>
@@ -1805,7 +1808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A29E01C1-2A2A-4E25-A5A7-EFBAC1D20EBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B137FA4-56F2-4956-81C8-6C968034CCF8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2309,7 +2312,7 @@
         <v>62</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="M11" s="7">
         <v>203</v>
@@ -2318,13 +2321,13 @@
         <v>136232</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2339,13 +2342,13 @@
         <v>27732</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>34</v>
@@ -2354,13 +2357,13 @@
         <v>22373</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M12" s="7">
         <v>76</v>
@@ -2369,13 +2372,13 @@
         <v>50104</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,13 +2393,13 @@
         <v>1297</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2405,13 +2408,13 @@
         <v>2615</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M13" s="7">
         <v>6</v>
@@ -2420,13 +2423,13 @@
         <v>3912</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,13 +2444,13 @@
         <v>667</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -2456,13 +2459,13 @@
         <v>1328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>3</v>
@@ -2471,13 +2474,13 @@
         <v>1996</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2519,7 +2522,7 @@
         <v>610</v>
       </c>
       <c r="N15" s="7">
-        <v>405684</v>
+        <v>405683</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>47</v>
@@ -2533,7 +2536,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2545,13 +2548,13 @@
         <v>24396</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>42</v>
@@ -2560,13 +2563,13 @@
         <v>29425</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>78</v>
@@ -2575,13 +2578,13 @@
         <v>53822</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,13 +2599,13 @@
         <v>16593</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>22</v>
@@ -2611,13 +2614,13 @@
         <v>15298</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M17" s="7">
         <v>47</v>
@@ -2626,13 +2629,13 @@
         <v>31891</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,13 +2650,13 @@
         <v>8052</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H18" s="7">
         <v>9</v>
@@ -2662,13 +2665,13 @@
         <v>5958</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M18" s="7">
         <v>21</v>
@@ -2677,13 +2680,13 @@
         <v>14009</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2704,7 +2707,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H19" s="7">
         <v>5</v>
@@ -2713,13 +2716,13 @@
         <v>3565</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M19" s="7">
         <v>5</v>
@@ -2728,13 +2731,13 @@
         <v>3565</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2755,7 +2758,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2770,7 +2773,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2785,7 +2788,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2853,13 +2856,13 @@
         <v>167338</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H22" s="7">
         <v>220</v>
@@ -2868,13 +2871,13 @@
         <v>148270</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>474</v>
@@ -2883,13 +2886,13 @@
         <v>315608</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2904,13 +2907,13 @@
         <v>97726</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H23" s="7">
         <v>147</v>
@@ -2919,13 +2922,13 @@
         <v>99162</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>292</v>
@@ -2934,13 +2937,13 @@
         <v>196888</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2955,13 +2958,13 @@
         <v>41870</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -2970,13 +2973,13 @@
         <v>34369</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -2985,13 +2988,13 @@
         <v>76240</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,13 +3009,13 @@
         <v>1297</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -3021,13 +3024,13 @@
         <v>6179</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -3036,13 +3039,13 @@
         <v>7477</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,13 +3060,13 @@
         <v>667</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H26" s="7">
         <v>2</v>
@@ -3072,13 +3075,13 @@
         <v>1328</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3087,13 +3090,13 @@
         <v>1996</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3168,7 +3171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A363361-1ACA-4FA6-B005-5F8E94C38A19}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1835F1E1-0DF7-4C3B-AE9A-55EB2EFB37DB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3478,10 +3481,10 @@
         <v>202</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3502,7 +3505,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3517,7 +3520,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3532,7 +3535,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3600,13 +3603,13 @@
         <v>128068</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H10" s="7">
         <v>154</v>
@@ -3615,13 +3618,13 @@
         <v>107925</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>341</v>
@@ -3630,13 +3633,13 @@
         <v>235993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3654,13 @@
         <v>76395</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H11" s="7">
         <v>97</v>
@@ -3666,13 +3669,13 @@
         <v>66967</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>208</v>
@@ -3681,13 +3684,13 @@
         <v>143361</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3705,13 @@
         <v>19076</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>227</v>
       </c>
       <c r="H12" s="7">
         <v>31</v>
@@ -3717,13 +3720,13 @@
         <v>21566</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>201</v>
+        <v>229</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M12" s="7">
         <v>59</v>
@@ -3732,13 +3735,13 @@
         <v>40641</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3753,13 +3756,13 @@
         <v>1226</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H13" s="7">
         <v>3</v>
@@ -3768,13 +3771,13 @@
         <v>2375</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>163</v>
+        <v>236</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3783,13 +3786,13 @@
         <v>3601</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3810,7 +3813,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3825,7 +3828,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3840,7 +3843,7 @@
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3896,7 +3899,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3908,13 +3911,13 @@
         <v>31695</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="H16" s="7">
         <v>51</v>
@@ -3923,13 +3926,13 @@
         <v>36334</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -3938,13 +3941,13 @@
         <v>68030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3959,13 +3962,13 @@
         <v>17637</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H17" s="7">
         <v>23</v>
@@ -3974,13 +3977,13 @@
         <v>16167</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -3989,13 +3992,13 @@
         <v>33805</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4013,13 @@
         <v>5878</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H18" s="7">
         <v>10</v>
@@ -4025,13 +4028,13 @@
         <v>7461</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -4040,13 +4043,13 @@
         <v>13338</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4064,13 @@
         <v>942</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -4076,13 +4079,13 @@
         <v>839</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4091,13 +4094,13 @@
         <v>1781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>269</v>
+        <v>156</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,7 +4121,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4133,7 +4136,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>161</v>
+        <v>276</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4148,7 +4151,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4219,13 @@
         <v>182270</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="H22" s="7">
         <v>247</v>
@@ -4231,13 +4234,13 @@
         <v>173888</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="M22" s="7">
         <v>514</v>
@@ -4246,13 +4249,13 @@
         <v>356158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4267,13 +4270,13 @@
         <v>108948</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H23" s="7">
         <v>139</v>
@@ -4282,13 +4285,13 @@
         <v>96170</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="M23" s="7">
         <v>296</v>
@@ -4297,13 +4300,13 @@
         <v>205119</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4318,13 +4321,13 @@
         <v>31656</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -4333,13 +4336,13 @@
         <v>37189</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>295</v>
+        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>97</v>
@@ -4348,13 +4351,13 @@
         <v>68844</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,13 +4372,13 @@
         <v>3204</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4384,13 +4387,13 @@
         <v>4012</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>300</v>
+        <v>164</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4399,13 +4402,13 @@
         <v>7215</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>237</v>
+        <v>308</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>82</v>
+        <v>309</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4426,7 +4429,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4441,7 +4444,7 @@
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4456,7 +4459,7 @@
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4531,7 +4534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D431255D-D3F7-479C-933E-2B325CD35355}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E0A1B-3F99-4FE9-B906-069700F2CA4A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4548,7 +4551,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4655,13 +4658,13 @@
         <v>16125</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="H4" s="7">
         <v>21</v>
@@ -4670,13 +4673,13 @@
         <v>14263</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -4685,13 +4688,13 @@
         <v>30387</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4706,13 +4709,13 @@
         <v>17242</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H5" s="7">
         <v>15</v>
@@ -4721,13 +4724,13 @@
         <v>10696</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4736,13 +4739,13 @@
         <v>27937</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,13 +4760,13 @@
         <v>2646</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>202</v>
+        <v>332</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="H6" s="7">
         <v>5</v>
@@ -4772,13 +4775,13 @@
         <v>3730</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4787,13 +4790,13 @@
         <v>6375</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4808,13 +4811,13 @@
         <v>626</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4823,13 +4826,13 @@
         <v>1918</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4838,13 +4841,13 @@
         <v>2544</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>340</v>
+        <v>81</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4865,7 +4868,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4880,7 +4883,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>343</v>
+        <v>348</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4895,7 +4898,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4963,13 +4966,13 @@
         <v>125110</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="H10" s="7">
         <v>183</v>
@@ -4978,13 +4981,13 @@
         <v>127157</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>348</v>
+        <v>353</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>349</v>
+        <v>354</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>350</v>
+        <v>355</v>
       </c>
       <c r="M10" s="7">
         <v>353</v>
@@ -4993,13 +4996,13 @@
         <v>252267</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>353</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5014,13 +5017,13 @@
         <v>82997</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="H11" s="7">
         <v>125</v>
@@ -5029,13 +5032,13 @@
         <v>87496</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M11" s="7">
         <v>238</v>
@@ -5044,13 +5047,13 @@
         <v>170492</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5065,13 +5068,13 @@
         <v>24231</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H12" s="7">
         <v>33</v>
@@ -5080,13 +5083,13 @@
         <v>24021</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
@@ -5095,13 +5098,13 @@
         <v>48252</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5116,13 +5119,13 @@
         <v>2446</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H13" s="7">
         <v>5</v>
@@ -5131,13 +5134,13 @@
         <v>3482</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5146,13 +5149,13 @@
         <v>5928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5173,7 +5176,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -5182,13 +5185,13 @@
         <v>1279</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5197,13 +5200,13 @@
         <v>1279</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>383</v>
+        <v>303</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5259,7 +5262,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5271,13 +5274,13 @@
         <v>47104</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="H16" s="7">
         <v>57</v>
@@ -5286,13 +5289,13 @@
         <v>41451</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -5301,13 +5304,13 @@
         <v>88555</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5322,13 +5325,13 @@
         <v>22931</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="H17" s="7">
         <v>25</v>
@@ -5337,13 +5340,13 @@
         <v>17083</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -5352,13 +5355,13 @@
         <v>40014</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5373,13 +5376,13 @@
         <v>5467</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>403</v>
+        <v>123</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="H18" s="7">
         <v>14</v>
@@ -5391,10 +5394,10 @@
         <v>31</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -5403,13 +5406,13 @@
         <v>15283</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>409</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5430,7 +5433,7 @@
         <v>42</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
@@ -5439,13 +5442,13 @@
         <v>738</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5454,13 +5457,13 @@
         <v>738</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>414</v>
+        <v>384</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5481,7 +5484,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5490,13 +5493,13 @@
         <v>646</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5505,13 +5508,13 @@
         <v>646</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>81</v>
+        <v>203</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5597,10 +5600,10 @@
         <v>421</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>12</v>
+        <v>422</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>517</v>
@@ -5609,13 +5612,13 @@
         <v>371209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5630,13 +5633,13 @@
         <v>123169</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H23" s="7">
         <v>165</v>
@@ -5645,13 +5648,13 @@
         <v>115274</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>335</v>
@@ -5660,13 +5663,13 @@
         <v>238444</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5681,13 +5684,13 @@
         <v>32344</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>437</v>
+        <v>334</v>
       </c>
       <c r="H24" s="7">
         <v>52</v>
@@ -5702,7 +5705,7 @@
         <v>439</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>440</v>
+        <v>31</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -5711,13 +5714,13 @@
         <v>69911</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>441</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>442</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5732,13 +5735,13 @@
         <v>3072</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>168</v>
+        <v>443</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>306</v>
+        <v>444</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>443</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -5747,13 +5750,13 @@
         <v>6138</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>235</v>
+        <v>446</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -5762,10 +5765,10 @@
         <v>9210</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>446</v>
+        <v>90</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>447</v>
+        <v>86</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>448</v>
@@ -5789,7 +5792,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c r="H26" s="7">
         <v>3</v>
@@ -5798,13 +5801,13 @@
         <v>1925</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>269</v>
+        <v>450</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5813,13 +5816,13 @@
         <v>1925</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP07C12-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP07C12-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AEB7596-D388-4E49-B7D5-4F593776FB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D726926F-E50D-4C8E-93ED-A4A7FDFD5FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FC2EAD9A-86EA-4D44-BB75-C654BF44BB56}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C58EB6BC-63E8-4E5C-A783-B96516C73A71}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -43,10 +43,10 @@
     <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2007 (Tasa respuesta: 42,54%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -73,91 +73,91 @@
     <t>Siempre</t>
   </si>
   <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
     <t>61,73%</t>
   </si>
   <si>
-    <t>49,69%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
   </si>
   <si>
     <t>54,18%</t>
   </si>
   <si>
-    <t>45,84%</t>
-  </si>
-  <si>
-    <t>63,06%</t>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>62,32%</t>
   </si>
   <si>
     <t>Casi siempre</t>
   </si>
   <si>
+    <t>39,79%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>51,25%</t>
+  </si>
+  <si>
     <t>24,19%</t>
   </si>
   <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>39,79%</t>
-  </si>
-  <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>37,22%</t>
   </si>
   <si>
     <t>32,23%</t>
   </si>
   <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>40,95%</t>
   </si>
   <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>23,32%</t>
+  </si>
+  <si>
     <t>14,08%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>25,58%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
   </si>
   <si>
     <t>13,59%</t>
   </si>
   <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
   </si>
   <si>
     <t>Casi nunca</t>
@@ -169,12 +169,12 @@
     <t>0%</t>
   </si>
   <si>
+    <t>2,74%</t>
+  </si>
+  <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>2,74%</t>
-  </si>
-  <si>
     <t>1,42%</t>
   </si>
   <si>
@@ -187,1216 +187,1216 @@
     <t>Secundarios</t>
   </si>
   <si>
+    <t>51,41%</t>
+  </si>
+  <si>
+    <t>45,93%</t>
+  </si>
+  <si>
+    <t>56,82%</t>
+  </si>
+  <si>
     <t>53,67%</t>
   </si>
   <si>
-    <t>48,27%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>51,41%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>57,07%</t>
+    <t>48,1%</t>
+  </si>
+  <si>
+    <t>59,0%</t>
   </si>
   <si>
     <t>52,61%</t>
   </si>
   <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>37,71%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>29,6%</t>
-  </si>
-  <si>
-    <t>40,21%</t>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
   </si>
   <si>
     <t>33,58%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>37,51%</t>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
   </si>
   <si>
     <t>12,8%</t>
   </si>
   <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>12,35%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>54,24%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
+  </si>
+  <si>
+    <t>49,75%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>52,11%</t>
+  </si>
+  <si>
+    <t>43,54%</t>
+  </si>
+  <si>
+    <t>60,1%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>39,2%</t>
+  </si>
+  <si>
+    <t>33,83%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>30,88%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>46,35%</t>
+  </si>
+  <si>
+    <t>55,8%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>49,59%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>30,14%</t>
+  </si>
+  <si>
+    <t>39,07%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>32,91%</t>
+  </si>
+  <si>
+    <t>29,92%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>13,55%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>12,74%</t>
+  </si>
+  <si>
+    <t>10,58%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>46,14%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>62,47%</t>
+  </si>
+  <si>
+    <t>53,87%</t>
+  </si>
+  <si>
+    <t>45,11%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>25,25%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>36,18%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>44,55%</t>
+  </si>
+  <si>
+    <t>28,88%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>2,29%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>54,28%</t>
+  </si>
+  <si>
+    <t>48,56%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>55,71%</t>
+  </si>
+  <si>
+    <t>51,8%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>33,68%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>33,99%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>37,6%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>56,45%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>36,53%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>28,9%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>36,16%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>6,26%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>55,87%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>60,54%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>51,78%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>29,51%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>35,27%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2016 (Tasa respuesta: 45,48%)</t>
+  </si>
+  <si>
+    <t>46,6%</t>
+  </si>
+  <si>
+    <t>31,85%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>45,19%</t>
+  </si>
+  <si>
+    <t>36,0%</t>
+  </si>
+  <si>
+    <t>55,68%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
+  </si>
+  <si>
+    <t>47,06%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>52,25%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>52,23%</t>
+  </si>
+  <si>
+    <t>46,94%</t>
+  </si>
+  <si>
+    <t>58,03%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>58,52%</t>
+  </si>
+  <si>
+    <t>52,75%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>29,94%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>62,39%</t>
+  </si>
+  <si>
+    <t>52,81%</t>
+  </si>
+  <si>
+    <t>71,02%</t>
+  </si>
+  <si>
+    <t>60,97%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>67,61%</t>
+  </si>
+  <si>
+    <t>24,5%</t>
+  </si>
+  <si>
+    <t>30,37%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
   </si>
   <si>
     <t>8,44%</t>
   </si>
   <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,25%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>53,19%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>50,06%</t>
+  </si>
+  <si>
+    <t>58,51%</t>
+  </si>
+  <si>
+    <t>53,74%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,22%</t>
+  </si>
+  <si>
+    <t>37,53%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
   </si>
   <si>
     <t>1,33%</t>
   </si>
   <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>60,93%</t>
-  </si>
-  <si>
-    <t>54,24%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>52,11%</t>
-  </si>
-  <si>
-    <t>44,21%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>45,41%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>30,88%</t>
-  </si>
-  <si>
-    <t>24,63%</t>
-  </si>
-  <si>
-    <t>39,45%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>49,24%</t>
-  </si>
-  <si>
-    <t>58,27%</t>
-  </si>
-  <si>
-    <t>51,25%</t>
-  </si>
-  <si>
-    <t>46,94%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>52,76%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>29,58%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>32,91%</t>
-  </si>
-  <si>
-    <t>29,97%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>13,55%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>9,18%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
+    <t>0,75%</t>
   </si>
   <si>
     <t>2,15%</t>
   </si>
   <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2012 (Tasa respuesta: 43,69%)</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>57,39%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>53,87%</t>
-  </si>
-  <si>
-    <t>44,58%</t>
-  </si>
-  <si>
-    <t>61,69%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>36,14%</t>
-  </si>
-  <si>
-    <t>28,88%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>62,06%</t>
-  </si>
-  <si>
-    <t>54,28%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>59,69%</t>
-  </si>
-  <si>
-    <t>55,71%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
-  </si>
-  <si>
-    <t>59,65%</t>
-  </si>
-  <si>
-    <t>33,99%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>39,62%</t>
-  </si>
-  <si>
-    <t>33,68%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>46,36%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>69,53%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>50,39%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>21,52%</t>
-  </si>
-  <si>
-    <t>43,43%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>16,83%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>55,87%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>37,56%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>35,44%</t>
-  </si>
-  <si>
-    <t>32,18%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>35,62%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>Menores según frecuencia de sentirse que sus padres hayan tenido suficiente tiempo par él/ella en 2016 (Tasa respuesta: 45,48%)</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>46,6%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>61,6%</t>
-  </si>
-  <si>
-    <t>45,19%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
-  </si>
-  <si>
-    <t>47,06%</t>
-  </si>
-  <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>61,05%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>31,73%</t>
-  </si>
-  <si>
-    <t>51,95%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>24,85%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>58,4%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>46,58%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>52,75%</t>
-  </si>
-  <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>40,92%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
-  </si>
-  <si>
-    <t>30,58%</t>
-  </si>
-  <si>
-    <t>40,84%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>62,39%</t>
-  </si>
-  <si>
-    <t>52,81%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>50,16%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>60,97%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>67,6%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>40,23%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>49,67%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>53,19%</t>
-  </si>
-  <si>
-    <t>48,72%</t>
-  </si>
-  <si>
-    <t>57,86%</t>
-  </si>
-  <si>
-    <t>53,74%</t>
-  </si>
-  <si>
-    <t>50,83%</t>
-  </si>
-  <si>
-    <t>57,33%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>31,42%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>38,09%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,61%</t>
+    <t>1,49%</t>
   </si>
   <si>
     <t>0,08%</t>
   </si>
   <si>
-    <t>0,75%</t>
+    <t>0,82%</t>
   </si>
 </sst>
 </file>
@@ -1808,7 +1808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B137FA4-56F2-4956-81C8-6C968034CCF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91618471-D63E-4B4D-AAC5-CCDC1DCB3809}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1926,10 +1926,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D4" s="7">
-        <v>26683</v>
+        <v>21664</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1941,10 +1941,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="I4" s="7">
-        <v>21664</v>
+        <v>26683</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1977,10 +1977,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="D5" s="7">
-        <v>10454</v>
+        <v>18311</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1992,10 +1992,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="I5" s="7">
-        <v>18311</v>
+        <v>10454</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -2031,7 +2031,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="7">
-        <v>6087</v>
+        <v>6039</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -2046,7 +2046,7 @@
         <v>9</v>
       </c>
       <c r="I6" s="7">
-        <v>6039</v>
+        <v>6087</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -2181,25 +2181,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>69</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46014</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7">
         <v>65</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>43224</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7">
-        <v>69</v>
-      </c>
-      <c r="I9" s="7">
-        <v>46014</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>47</v>
@@ -2234,10 +2234,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>177</v>
+        <v>145</v>
       </c>
       <c r="D10" s="7">
-        <v>116259</v>
+        <v>97180</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>49</v>
@@ -2249,10 +2249,10 @@
         <v>51</v>
       </c>
       <c r="H10" s="7">
-        <v>145</v>
+        <v>177</v>
       </c>
       <c r="I10" s="7">
-        <v>97180</v>
+        <v>116259</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>52</v>
@@ -2285,10 +2285,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D11" s="7">
-        <v>70679</v>
+        <v>65552</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>58</v>
@@ -2300,10 +2300,10 @@
         <v>60</v>
       </c>
       <c r="H11" s="7">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="I11" s="7">
-        <v>65552</v>
+        <v>70679</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>61</v>
@@ -2336,10 +2336,10 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D12" s="7">
-        <v>27732</v>
+        <v>22373</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>67</v>
@@ -2351,10 +2351,10 @@
         <v>69</v>
       </c>
       <c r="H12" s="7">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I12" s="7">
-        <v>22373</v>
+        <v>27732</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>70</v>
@@ -2387,31 +2387,31 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>1297</v>
+        <v>2615</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H13" s="7">
+        <v>2</v>
+      </c>
+      <c r="I13" s="7">
+        <v>1297</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="H13" s="7">
-        <v>4</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2615</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>80</v>
@@ -2438,10 +2438,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="7">
-        <v>667</v>
+        <v>1328</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>84</v>
@@ -2453,10 +2453,10 @@
         <v>85</v>
       </c>
       <c r="H14" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" s="7">
-        <v>1328</v>
+        <v>667</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>86</v>
@@ -2489,25 +2489,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>283</v>
+      </c>
+      <c r="D15" s="7">
+        <v>189048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7">
         <v>327</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>216635</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="7">
-        <v>283</v>
-      </c>
-      <c r="I15" s="7">
-        <v>189048</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>47</v>
@@ -2542,10 +2542,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D16" s="7">
-        <v>24396</v>
+        <v>29425</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>92</v>
@@ -2557,10 +2557,10 @@
         <v>94</v>
       </c>
       <c r="H16" s="7">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="I16" s="7">
-        <v>29425</v>
+        <v>24396</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>95</v>
@@ -2593,10 +2593,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7">
-        <v>16593</v>
+        <v>15298</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>101</v>
@@ -2608,10 +2608,10 @@
         <v>103</v>
       </c>
       <c r="H17" s="7">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I17" s="7">
-        <v>15298</v>
+        <v>16593</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>104</v>
@@ -2644,10 +2644,10 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="7">
-        <v>8052</v>
+        <v>5958</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>110</v>
@@ -2659,10 +2659,10 @@
         <v>112</v>
       </c>
       <c r="H18" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="I18" s="7">
-        <v>5958</v>
+        <v>8052</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>113</v>
@@ -2695,31 +2695,31 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>5</v>
+      </c>
+      <c r="D19" s="7">
+        <v>3565</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>42</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H19" s="7">
-        <v>5</v>
-      </c>
-      <c r="I19" s="7">
-        <v>3565</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>122</v>
@@ -2758,7 +2758,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2797,25 +2797,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>78</v>
+      </c>
+      <c r="D21" s="7">
+        <v>54246</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="7">
         <v>73</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>49040</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="7">
-        <v>78</v>
-      </c>
-      <c r="I21" s="7">
-        <v>54246</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -2850,34 +2850,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>220</v>
+      </c>
+      <c r="D22" s="7">
+        <v>148270</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="H22" s="7">
         <v>254</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>167338</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G22" s="7" t="s">
+      <c r="J22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H22" s="7">
-        <v>220</v>
-      </c>
-      <c r="I22" s="7">
-        <v>148270</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M22" s="7">
         <v>474</v>
@@ -2886,13 +2886,13 @@
         <v>315608</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2901,34 +2901,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>147</v>
+      </c>
+      <c r="D23" s="7">
+        <v>99162</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H23" s="7">
         <v>145</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>97726</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G23" s="7" t="s">
+      <c r="J23" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="H23" s="7">
-        <v>147</v>
-      </c>
-      <c r="I23" s="7">
-        <v>99162</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="K23" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="K23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M23" s="7">
         <v>292</v>
@@ -2937,13 +2937,13 @@
         <v>196888</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P23" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="P23" s="7" t="s">
+      <c r="Q23" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,34 +2952,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7">
+        <v>34369</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H24" s="7">
         <v>63</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>41870</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G24" s="7" t="s">
+      <c r="J24" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="H24" s="7">
-        <v>52</v>
-      </c>
-      <c r="I24" s="7">
-        <v>34369</v>
-      </c>
-      <c r="J24" s="7" t="s">
+      <c r="K24" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M24" s="7">
         <v>115</v>
@@ -2988,13 +2988,13 @@
         <v>76240</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3003,34 +3003,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6179</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H25" s="7">
         <v>2</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>1297</v>
       </c>
-      <c r="E25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F25" s="7" t="s">
+      <c r="J25" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H25" s="7">
-        <v>9</v>
-      </c>
-      <c r="I25" s="7">
-        <v>6179</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -3039,13 +3039,13 @@
         <v>7477</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3054,34 +3054,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="7">
-        <v>667</v>
+        <v>1328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" s="7">
-        <v>1328</v>
+        <v>667</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -3090,13 +3090,13 @@
         <v>1996</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3105,25 +3105,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>430</v>
+      </c>
+      <c r="D27" s="7">
+        <v>289309</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7">
         <v>465</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>308899</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="7">
-        <v>430</v>
-      </c>
-      <c r="I27" s="7">
-        <v>289309</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>47</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3171,7 +3171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1835F1E1-0DF7-4C3B-AE9A-55EB2EFB37DB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2E04A9B-E792-4962-90C6-29426CFF5938}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3188,7 +3188,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3289,34 +3289,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>42</v>
+      </c>
+      <c r="D4" s="7">
+        <v>29629</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H4" s="7">
         <v>33</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>22507</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="7">
-        <v>42</v>
-      </c>
-      <c r="I4" s="7">
-        <v>29629</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M4" s="7">
         <v>75</v>
@@ -3325,13 +3325,13 @@
         <v>52135</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3340,34 +3340,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>19</v>
+      </c>
+      <c r="D5" s="7">
+        <v>13037</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H5" s="7">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>14917</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H5" s="7">
-        <v>19</v>
-      </c>
-      <c r="I5" s="7">
-        <v>13037</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M5" s="7">
         <v>40</v>
@@ -3376,13 +3376,13 @@
         <v>27953</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,34 +3391,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>8163</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H6" s="7">
         <v>8</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>6703</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G6" s="7" t="s">
+      <c r="J6" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7">
-        <v>8163</v>
-      </c>
-      <c r="J6" s="7" t="s">
+      <c r="L6" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="M6" s="7">
         <v>19</v>
@@ -3427,13 +3427,13 @@
         <v>14865</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,34 +3442,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>1036</v>
+        <v>798</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="7">
-        <v>798</v>
+        <v>1036</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="M7" s="7">
         <v>3</v>
@@ -3478,13 +3478,13 @@
         <v>1834</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3505,7 +3505,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>205</v>
+        <v>122</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3520,7 +3520,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>119</v>
+        <v>202</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>206</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,25 +3544,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>73</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51626</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7">
         <v>64</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>45162</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7">
-        <v>73</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51626</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>47</v>
@@ -3597,34 +3597,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>154</v>
+      </c>
+      <c r="D10" s="7">
+        <v>107925</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="H10" s="7">
         <v>187</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>128068</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="J10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H10" s="7">
-        <v>154</v>
-      </c>
-      <c r="I10" s="7">
-        <v>107925</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M10" s="7">
         <v>341</v>
@@ -3633,13 +3633,13 @@
         <v>235993</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3648,34 +3648,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>97</v>
+      </c>
+      <c r="D11" s="7">
+        <v>66967</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H11" s="7">
         <v>111</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>76395</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H11" s="7">
-        <v>97</v>
-      </c>
-      <c r="I11" s="7">
-        <v>66967</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M11" s="7">
         <v>208</v>
@@ -3684,13 +3684,13 @@
         <v>143361</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>223</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,34 +3699,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>31</v>
+      </c>
+      <c r="D12" s="7">
+        <v>21566</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H12" s="7">
         <v>28</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>19076</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="J12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="H12" s="7">
-        <v>31</v>
-      </c>
-      <c r="I12" s="7">
-        <v>21566</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>230</v>
       </c>
       <c r="M12" s="7">
         <v>59</v>
@@ -3735,13 +3735,13 @@
         <v>40641</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,34 +3750,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2375</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H13" s="7">
         <v>2</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>1226</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="H13" s="7">
-        <v>3</v>
-      </c>
-      <c r="I13" s="7">
-        <v>2375</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>237</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -3786,13 +3786,13 @@
         <v>3601</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3813,7 +3813,7 @@
         <v>42</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3828,7 +3828,7 @@
         <v>42</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -3843,7 +3843,7 @@
         <v>42</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3852,25 +3852,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>285</v>
+      </c>
+      <c r="D15" s="7">
+        <v>198832</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7">
         <v>328</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>224765</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="7">
-        <v>285</v>
-      </c>
-      <c r="I15" s="7">
-        <v>198832</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>47</v>
@@ -3905,34 +3905,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7">
+        <v>36334</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="H16" s="7">
+        <v>47</v>
+      </c>
+      <c r="I16" s="7">
         <v>31695</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="H16" s="7">
-        <v>51</v>
-      </c>
-      <c r="I16" s="7">
-        <v>36334</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>249</v>
       </c>
       <c r="M16" s="7">
         <v>98</v>
@@ -3941,13 +3941,13 @@
         <v>68030</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3956,34 +3956,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>23</v>
+      </c>
+      <c r="D17" s="7">
+        <v>16167</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="H17" s="7">
         <v>25</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>17637</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="J17" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="H17" s="7">
-        <v>23</v>
-      </c>
-      <c r="I17" s="7">
-        <v>16167</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="M17" s="7">
         <v>48</v>
@@ -3992,13 +3992,13 @@
         <v>33805</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4007,34 +4007,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>10</v>
+      </c>
+      <c r="D18" s="7">
+        <v>7461</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H18" s="7">
         <v>9</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5878</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="J18" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="H18" s="7">
-        <v>10</v>
-      </c>
-      <c r="I18" s="7">
-        <v>7461</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="M18" s="7">
         <v>19</v>
@@ -4043,13 +4043,13 @@
         <v>13338</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,31 +4061,31 @@
         <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>942</v>
+        <v>839</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>271</v>
+        <v>76</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="H19" s="7">
         <v>1</v>
       </c>
       <c r="I19" s="7">
-        <v>839</v>
+        <v>942</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>78</v>
+        <v>267</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="M19" s="7">
         <v>2</v>
@@ -4094,13 +4094,13 @@
         <v>1781</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4121,7 @@
         <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>275</v>
+        <v>160</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4136,7 +4136,7 @@
         <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -4151,7 +4151,7 @@
         <v>42</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>277</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,25 +4160,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7">
+        <v>60801</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="7">
         <v>82</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>56152</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="7">
-        <v>85</v>
-      </c>
-      <c r="I21" s="7">
-        <v>60801</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -4213,34 +4213,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>247</v>
+      </c>
+      <c r="D22" s="7">
+        <v>173888</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="H22" s="7">
         <v>267</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>182270</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H22" s="7">
-        <v>247</v>
-      </c>
-      <c r="I22" s="7">
-        <v>173888</v>
-      </c>
       <c r="J22" s="7" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="M22" s="7">
         <v>514</v>
@@ -4249,13 +4249,13 @@
         <v>356158</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4264,34 +4264,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>139</v>
+      </c>
+      <c r="D23" s="7">
+        <v>96170</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="7">
         <v>157</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>108948</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H23" s="7">
-        <v>139</v>
-      </c>
-      <c r="I23" s="7">
-        <v>96170</v>
-      </c>
       <c r="J23" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="M23" s="7">
         <v>296</v>
@@ -4300,13 +4300,13 @@
         <v>205119</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,34 +4315,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
+        <v>52</v>
+      </c>
+      <c r="D24" s="7">
+        <v>37189</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="H24" s="7">
         <v>45</v>
       </c>
-      <c r="D24" s="7">
+      <c r="I24" s="7">
         <v>31656</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="H24" s="7">
-        <v>52</v>
-      </c>
-      <c r="I24" s="7">
-        <v>37189</v>
-      </c>
       <c r="J24" s="7" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="M24" s="7">
         <v>97</v>
@@ -4351,13 +4351,13 @@
         <v>68844</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4369,31 +4369,31 @@
         <v>5</v>
       </c>
       <c r="D25" s="7">
-        <v>3204</v>
+        <v>4012</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>4012</v>
+        <v>3204</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>164</v>
+        <v>301</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>306</v>
+        <v>83</v>
       </c>
       <c r="M25" s="7">
         <v>10</v>
@@ -4402,13 +4402,13 @@
         <v>7215</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>307</v>
+        <v>164</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,7 +4429,7 @@
         <v>42</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>82</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -4444,7 +4444,7 @@
         <v>42</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>0</v>
@@ -4459,7 +4459,7 @@
         <v>42</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4468,25 +4468,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>443</v>
+      </c>
+      <c r="D27" s="7">
+        <v>311258</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7">
         <v>474</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>326078</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="7">
-        <v>443</v>
-      </c>
-      <c r="I27" s="7">
-        <v>311258</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>47</v>
@@ -4515,7 +4515,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4534,7 +4534,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869E0A1B-3F99-4FE9-B906-069700F2CA4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25A3E9FB-9734-4E13-A4C9-A0768E268A9A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4551,7 +4551,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4652,34 +4652,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>21</v>
+      </c>
+      <c r="D4" s="7">
+        <v>14263</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="7">
         <v>22</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>16125</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H4" s="7">
-        <v>21</v>
-      </c>
-      <c r="I4" s="7">
-        <v>14263</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>317</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="M4" s="7">
         <v>43</v>
@@ -4688,13 +4688,13 @@
         <v>30387</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4703,34 +4703,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7">
+        <v>10696</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="H5" s="7">
         <v>24</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>17242</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="H5" s="7">
-        <v>15</v>
-      </c>
-      <c r="I5" s="7">
-        <v>10696</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="M5" s="7">
         <v>39</v>
@@ -4739,13 +4739,13 @@
         <v>27937</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4754,34 +4754,34 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
+        <v>5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>3730</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2646</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="H6" s="7">
-        <v>5</v>
-      </c>
-      <c r="I6" s="7">
-        <v>3730</v>
-      </c>
       <c r="J6" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M6" s="7">
         <v>9</v>
@@ -4790,13 +4790,13 @@
         <v>6375</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4805,34 +4805,34 @@
         <v>40</v>
       </c>
       <c r="C7" s="7">
+        <v>3</v>
+      </c>
+      <c r="D7" s="7">
+        <v>1918</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>626</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G7" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3</v>
-      </c>
-      <c r="I7" s="7">
-        <v>1918</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>343</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="M7" s="7">
         <v>4</v>
@@ -4841,13 +4841,13 @@
         <v>2544</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>81</v>
+        <v>340</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4868,7 +4868,7 @@
         <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>347</v>
+        <v>155</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4883,7 +4883,7 @@
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4898,7 +4898,7 @@
         <v>42</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4907,25 +4907,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>44</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30606</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="7">
         <v>51</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>36638</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="7">
-        <v>44</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30606</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>47</v>
@@ -4960,34 +4960,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>183</v>
+      </c>
+      <c r="D10" s="7">
+        <v>127157</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H10" s="7">
         <v>170</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>125110</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>350</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>351</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="H10" s="7">
-        <v>183</v>
-      </c>
-      <c r="I10" s="7">
-        <v>127157</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="M10" s="7">
         <v>353</v>
@@ -4996,13 +4996,13 @@
         <v>252267</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5011,34 +5011,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>125</v>
+      </c>
+      <c r="D11" s="7">
+        <v>87496</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="H11" s="7">
         <v>113</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>82997</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="J11" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="H11" s="7">
-        <v>125</v>
-      </c>
-      <c r="I11" s="7">
-        <v>87496</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="M11" s="7">
         <v>238</v>
@@ -5047,13 +5047,13 @@
         <v>170492</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5062,34 +5062,34 @@
         <v>30</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>24021</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H12" s="7">
         <v>35</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>24231</v>
       </c>
-      <c r="E12" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>24021</v>
-      </c>
       <c r="J12" s="7" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>371</v>
+        <v>221</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M12" s="7">
         <v>68</v>
@@ -5098,13 +5098,13 @@
         <v>48252</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5113,34 +5113,34 @@
         <v>40</v>
       </c>
       <c r="C13" s="7">
+        <v>5</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3482</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="H13" s="7">
         <v>3</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>2446</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>377</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="H13" s="7">
-        <v>5</v>
-      </c>
-      <c r="I13" s="7">
-        <v>3482</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -5149,13 +5149,13 @@
         <v>5928</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5164,34 +5164,34 @@
         <v>46</v>
       </c>
       <c r="C14" s="7">
+        <v>2</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1279</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="H14" s="7">
         <v>0</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>0</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1279</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="M14" s="7">
         <v>2</v>
@@ -5200,13 +5200,13 @@
         <v>1279</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>303</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5215,25 +5215,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>348</v>
+      </c>
+      <c r="D15" s="7">
+        <v>243434</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H15" s="7">
         <v>321</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>234784</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="7">
-        <v>348</v>
-      </c>
-      <c r="I15" s="7">
-        <v>243434</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>47</v>
@@ -5268,34 +5268,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>57</v>
+      </c>
+      <c r="D16" s="7">
+        <v>41451</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="H16" s="7">
         <v>64</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>47104</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="J16" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>389</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="H16" s="7">
-        <v>57</v>
-      </c>
-      <c r="I16" s="7">
-        <v>41451</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>391</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="M16" s="7">
         <v>121</v>
@@ -5304,13 +5304,13 @@
         <v>88555</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5319,34 +5319,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>25</v>
+      </c>
+      <c r="D17" s="7">
+        <v>17083</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="7">
         <v>33</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>22931</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>398</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="H17" s="7">
-        <v>25</v>
-      </c>
-      <c r="I17" s="7">
-        <v>17083</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="M17" s="7">
         <v>58</v>
@@ -5355,13 +5355,13 @@
         <v>40014</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5370,34 +5370,34 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
+        <v>14</v>
+      </c>
+      <c r="D18" s="7">
+        <v>9816</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="H18" s="7">
         <v>8</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>5467</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="H18" s="7">
-        <v>14</v>
-      </c>
-      <c r="I18" s="7">
-        <v>9816</v>
-      </c>
       <c r="J18" s="7" t="s">
-        <v>31</v>
+        <v>401</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M18" s="7">
         <v>22</v>
@@ -5406,13 +5406,13 @@
         <v>15283</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>22</v>
+        <v>406</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5421,34 +5421,34 @@
         <v>40</v>
       </c>
       <c r="C19" s="7">
+        <v>1</v>
+      </c>
+      <c r="D19" s="7">
+        <v>738</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="H19" s="7">
         <v>0</v>
       </c>
-      <c r="D19" s="7">
+      <c r="I19" s="7">
         <v>0</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="J19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H19" s="7">
-        <v>1</v>
-      </c>
-      <c r="I19" s="7">
-        <v>738</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="L19" s="7" t="s">
-        <v>414</v>
+        <v>335</v>
       </c>
       <c r="M19" s="7">
         <v>1</v>
@@ -5457,13 +5457,13 @@
         <v>738</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>384</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5472,34 +5472,34 @@
         <v>46</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" s="7">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>416</v>
+        <v>41</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>417</v>
+        <v>335</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5508,13 +5508,13 @@
         <v>646</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>41</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>276</v>
+        <v>413</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5523,25 +5523,25 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
+        <v>98</v>
+      </c>
+      <c r="D21" s="7">
+        <v>69734</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="7">
         <v>105</v>
       </c>
-      <c r="D21" s="7">
+      <c r="I21" s="7">
         <v>75502</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H21" s="7">
-        <v>98</v>
-      </c>
-      <c r="I21" s="7">
-        <v>69734</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>47</v>
@@ -5576,34 +5576,34 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
+        <v>261</v>
+      </c>
+      <c r="D22" s="7">
+        <v>182870</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="H22" s="7">
         <v>256</v>
       </c>
-      <c r="D22" s="7">
+      <c r="I22" s="7">
         <v>188339</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="J22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>418</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="H22" s="7">
-        <v>261</v>
-      </c>
-      <c r="I22" s="7">
-        <v>182870</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M22" s="7">
         <v>517</v>
@@ -5612,13 +5612,13 @@
         <v>371209</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5627,34 +5627,34 @@
         <v>20</v>
       </c>
       <c r="C23" s="7">
+        <v>165</v>
+      </c>
+      <c r="D23" s="7">
+        <v>115274</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="H23" s="7">
         <v>170</v>
       </c>
-      <c r="D23" s="7">
+      <c r="I23" s="7">
         <v>123169</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="J23" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>428</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="H23" s="7">
-        <v>165</v>
-      </c>
-      <c r="I23" s="7">
-        <v>115274</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>430</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>431</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="M23" s="7">
         <v>335</v>
@@ -5663,13 +5663,13 @@
         <v>238444</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5678,34 +5678,34 @@
         <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D24" s="7">
+        <v>37567</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="H24" s="7">
+        <v>47</v>
+      </c>
+      <c r="I24" s="7">
         <v>32344</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="J24" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>436</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>437</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="H24" s="7">
-        <v>52</v>
-      </c>
-      <c r="I24" s="7">
-        <v>37567</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>438</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>439</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>31</v>
       </c>
       <c r="M24" s="7">
         <v>99</v>
@@ -5714,13 +5714,13 @@
         <v>69911</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5729,34 +5729,34 @@
         <v>40</v>
       </c>
       <c r="C25" s="7">
+        <v>9</v>
+      </c>
+      <c r="D25" s="7">
+        <v>6138</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="H25" s="7">
         <v>4</v>
       </c>
-      <c r="D25" s="7">
+      <c r="I25" s="7">
         <v>3072</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="J25" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
         <v>444</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H25" s="7">
-        <v>9</v>
-      </c>
-      <c r="I25" s="7">
-        <v>6138</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>446</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M25" s="7">
         <v>13</v>
@@ -5765,10 +5765,10 @@
         <v>9210</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>90</v>
+        <v>446</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>86</v>
+        <v>447</v>
       </c>
       <c r="Q25" s="7" t="s">
         <v>448</v>
@@ -5780,34 +5780,34 @@
         <v>46</v>
       </c>
       <c r="C26" s="7">
+        <v>3</v>
+      </c>
+      <c r="D26" s="7">
+        <v>1925</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="H26" s="7">
         <v>0</v>
       </c>
-      <c r="D26" s="7">
+      <c r="I26" s="7">
         <v>0</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="J26" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G26" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H26" s="7">
-        <v>3</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1925</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>449</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>450</v>
+        <v>306</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -5816,7 +5816,7 @@
         <v>1925</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>451</v>
@@ -5831,25 +5831,25 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
+        <v>490</v>
+      </c>
+      <c r="D27" s="7">
+        <v>343774</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H27" s="7">
         <v>477</v>
       </c>
-      <c r="D27" s="7">
+      <c r="I27" s="7">
         <v>346924</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H27" s="7">
-        <v>490</v>
-      </c>
-      <c r="I27" s="7">
-        <v>343774</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>47</v>
@@ -5878,7 +5878,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
